--- a/data/trans_bre/P19D_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1703865333055466</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4226574722955365</v>
+        <v>-0.4226574722955364</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.869174867981414</v>
+        <v>-4.755488798525316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.613444141130518</v>
+        <v>-7.371074576001357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.514163348756441</v>
+        <v>-5.418353147819759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.327002273147472</v>
+        <v>-7.111199812920982</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.538665691265737</v>
+        <v>-0.5588226801878382</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4279049648676587</v>
+        <v>-0.4135577793253501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4327403834656242</v>
+        <v>-0.4235284105339301</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6043943993253597</v>
+        <v>-0.6055694403156542</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.426914457157977</v>
+        <v>1.354713658879745</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7550868818155085</v>
+        <v>0.7514815390911104</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.806069931496377</v>
+        <v>2.048650184828667</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.348577034458221</v>
+        <v>-1.187178253427241</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3344807719037455</v>
+        <v>0.3081297458079764</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06605364475999766</v>
+        <v>0.06226660546288317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2043644690433928</v>
+        <v>0.2526949665474888</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1660425362036144</v>
+        <v>-0.156468075983467</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3647296044522214</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.439072167573616</v>
+        <v>-2.439072167573617</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01435667606039169</v>
@@ -749,7 +749,7 @@
         <v>0.04455223561682756</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2907358501462824</v>
+        <v>-0.2907358501462826</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.775916947133323</v>
+        <v>-2.748474343450674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.798125489740787</v>
+        <v>-5.886760560018455</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.709347781206336</v>
+        <v>-2.284763594633655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.891024803023694</v>
+        <v>-4.738428370369586</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3384040971164444</v>
+        <v>-0.3453092628195866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3581227244571332</v>
+        <v>-0.3570839755978789</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2816717967058401</v>
+        <v>-0.2513602179045678</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5010714136675919</v>
+        <v>-0.4778476143296134</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.560788494459572</v>
+        <v>2.382366441883855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8086111332324042</v>
+        <v>0.9673343018870967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.853809401738227</v>
+        <v>3.475929216778097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.237919085187374</v>
+        <v>-0.1955982211779717</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4755525965665839</v>
+        <v>0.4715848343324485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05979319744260923</v>
+        <v>0.08180106068757695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4140192301796782</v>
+        <v>0.5049633698526672</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.03568717044975685</v>
+        <v>-0.02452334777062523</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.438378088794453</v>
+        <v>-5.144016493662662</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.290360656372386</v>
+        <v>-8.32355176123777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.623453969156759</v>
+        <v>-5.105194399814548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.110968536273246</v>
+        <v>-5.977954278088359</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5070764069804351</v>
+        <v>-0.4905878911326997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5033482828749759</v>
+        <v>-0.4955697744298198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4539754702553613</v>
+        <v>-0.4629476019532507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6006604605381758</v>
+        <v>-0.5984138292005259</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9651304283589145</v>
+        <v>0.8604233292474801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.028240492345514</v>
+        <v>-1.113370956372946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.198394155952659</v>
+        <v>1.781569411324604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.6428539946176373</v>
+        <v>-0.1515321057258002</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1502355798824552</v>
+        <v>0.1177198755940691</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.07337624415160088</v>
+        <v>-0.0894822000132051</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3008235374426248</v>
+        <v>0.2745214439044512</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.09920870792868516</v>
+        <v>-0.02948169860080981</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.4214932534691532</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.85839865855086</v>
+        <v>-1.858398658550858</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1766550655951784</v>
@@ -949,7 +949,7 @@
         <v>0.04317766453470661</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2186330873713831</v>
+        <v>-0.218633087371383</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.332847595393272</v>
+        <v>-1.411504710918051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.343881203878646</v>
+        <v>-3.425338838472761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.646898357225854</v>
+        <v>-2.531853658893418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.422629153245678</v>
+        <v>-4.29035595153726</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1783305989641181</v>
+        <v>-0.1745712810871241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2759782404677559</v>
+        <v>-0.2863239583313942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2343321773078504</v>
+        <v>-0.2223251074364596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.434401925490827</v>
+        <v>-0.4183526406958762</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.98990176196052</v>
+        <v>3.8191091367759</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.603133506991411</v>
+        <v>2.361435304415535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.210959486941995</v>
+        <v>3.68785154712648</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2149143696632655</v>
+        <v>0.4571483834590128</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7419186655219973</v>
+        <v>0.676321408792553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3044264347354428</v>
+        <v>0.2776243977591273</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3730238519672034</v>
+        <v>0.4645841760746961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03499701102837657</v>
+        <v>0.0618716343388843</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.3779995334695432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.694532888280378</v>
+        <v>-2.694532888280376</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.06716772999388397</v>
@@ -1049,7 +1049,7 @@
         <v>-0.04089774880225571</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3163455153443376</v>
+        <v>-0.3163455153443375</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.995818800977585</v>
+        <v>-2.035713487179604</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.305301438705465</v>
+        <v>-4.369266147506937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.10980573847629</v>
+        <v>-2.073120901255638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.902512507186384</v>
+        <v>-4.056249525897827</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2438963438818913</v>
+        <v>-0.2595717597830285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2980901805242601</v>
+        <v>-0.3022152643545722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2044346626894344</v>
+        <v>-0.2038997001875376</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4192910678329037</v>
+        <v>-0.4350854965549151</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8644789934657683</v>
+        <v>0.8986021560086614</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7765664971534342</v>
+        <v>-0.8762418670466204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.30421418525035</v>
+        <v>1.148321342788876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.344193076538035</v>
+        <v>-1.462747302002015</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1479035865117563</v>
+        <v>0.1362353804293921</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.06250199630673016</v>
+        <v>-0.06604834352115106</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1547385055223879</v>
+        <v>0.1371830292585692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1763667708434366</v>
+        <v>-0.1872874920238715</v>
       </c>
     </row>
     <row r="19">
